--- a/!SF36_CompositeScores.xlsx
+++ b/!SF36_CompositeScores.xlsx
@@ -190,10 +190,10 @@
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>67.5</v>
+        <v>42.9</v>
       </c>
       <c r="E2" t="n">
-        <v>27.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3">
@@ -207,10 +207,10 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>42.9</v>
+        <v>40.0</v>
       </c>
       <c r="E3" t="n">
-        <v>40.9</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="4">
@@ -224,10 +224,10 @@
         <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>58.8</v>
+        <v>55.5</v>
       </c>
       <c r="E4" t="n">
-        <v>29.4</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="5">
@@ -241,10 +241,10 @@
         <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>52.9</v>
+        <v>53.0</v>
       </c>
       <c r="E5" t="n">
-        <v>25.6</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="6">
@@ -258,10 +258,10 @@
         <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>53.2</v>
+        <v>51.0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.5</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="7">
@@ -275,10 +275,10 @@
         <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="E7" t="n">
-        <v>27.7</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="8">
@@ -292,10 +292,10 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>40.5</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>45.6</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="9">
@@ -309,10 +309,10 @@
         <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>60.6</v>
+        <v>46.2</v>
       </c>
       <c r="E9" t="n">
-        <v>21.6</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
@@ -326,10 +326,10 @@
         <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>63.7</v>
+        <v>42.9</v>
       </c>
       <c r="E10" t="n">
-        <v>63.3</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="11">
@@ -343,10 +343,10 @@
         <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8</v>
+        <v>30.7</v>
       </c>
       <c r="E11" t="n">
-        <v>74.2</v>
+        <v>17.3</v>
       </c>
     </row>
   </sheetData>

--- a/!SF36_CompositeScores.xlsx
+++ b/!SF36_CompositeScores.xlsx
@@ -6,13 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Composite Scores" r:id="rId3" sheetId="1"/>
+    <sheet name="Subscales Stdz Gen US Pop" r:id="rId4" sheetId="2"/>
+    <sheet name="Subscales Raw" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Scale</t>
   </si>
@@ -32,6 +34,21 @@
     <t>2</t>
   </si>
   <si>
+    <t>Physical Composite Score</t>
+  </si>
+  <si>
+    <t>Mental Composite Score</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>MCS</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -50,12 +67,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Physical Functioning</t>
   </si>
   <si>
@@ -80,10 +91,28 @@
     <t>Mental Health</t>
   </si>
   <si>
-    <t>Physical Composite Score</t>
-  </si>
-  <si>
-    <t>Mental Composite Score</t>
+    <t>std_PF</t>
+  </si>
+  <si>
+    <t>std_RP</t>
+  </si>
+  <si>
+    <t>std_BP</t>
+  </si>
+  <si>
+    <t>std_GH</t>
+  </si>
+  <si>
+    <t>std_VT</t>
+  </si>
+  <si>
+    <t>std_SF</t>
+  </si>
+  <si>
+    <t>std_RE</t>
+  </si>
+  <si>
+    <t>std_MH</t>
   </si>
   <si>
     <t>PF</t>
@@ -108,12 +137,6 @@
   </si>
   <si>
     <t>MH</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>MCS</t>
   </si>
 </sst>
 </file>
@@ -184,16 +207,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>42.9</v>
+        <v>46.6</v>
       </c>
       <c r="E2" t="n">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3">
@@ -201,152 +224,398 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" t="n">
-        <v>40.0</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="E3" t="n">
-        <v>28.5</v>
+        <v>-1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>55.5</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E4" t="n">
-        <v>20.9</v>
+        <v>0.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>53.0</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="E5" t="n">
-        <v>19.2</v>
+        <v>0.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>51.0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>21.6</v>
+        <v>-0.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E7" t="n">
-        <v>13.7</v>
+        <v>-0.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="E8" t="n">
-        <v>14.9</v>
+        <v>-0.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="E2" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="E3" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E6" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E7" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>46.2</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17.3</v>
+        <v>48.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.9</v>
       </c>
     </row>
   </sheetData>

--- a/!SF36_CompositeScores.xlsx
+++ b/!SF36_CompositeScores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Scale</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>stdErr</t>
   </si>
   <si>
     <t>stdDev</t>
@@ -201,38 +204,47 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>46.6</v>
       </c>
       <c r="E2" t="n">
+        <v>1.6439817267480255</v>
+      </c>
+      <c r="F2" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>45.5</v>
       </c>
       <c r="E3" t="n">
+        <v>1.6884466964922387</v>
+      </c>
+      <c r="F3" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -258,7 +270,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -266,16 +278,19 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.47619047619047616</v>
@@ -284,18 +299,21 @@
         <v>-0.5</v>
       </c>
       <c r="F2" t="n">
+        <v>0.2537454844043347</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.19047619047619047</v>
@@ -304,18 +322,21 @@
         <v>-1.0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.8665906719226351</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.09523809523809523</v>
@@ -324,18 +345,21 @@
         <v>0.3</v>
       </c>
       <c r="F4" t="n">
+        <v>0.5733462746497072</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.23809523809523808</v>
@@ -344,18 +368,21 @@
         <v>0.2</v>
       </c>
       <c r="F5" t="n">
+        <v>0.5099185101981403</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.2857142857142857</v>
@@ -364,18 +391,21 @@
         <v>-0.2</v>
       </c>
       <c r="F6" t="n">
+        <v>0.6299374464434435</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0.14285714285714285</v>
@@ -384,18 +414,21 @@
         <v>-0.3</v>
       </c>
       <c r="F7" t="n">
+        <v>0.43960691722598305</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>0.21428571428571427</v>
@@ -404,18 +437,21 @@
         <v>-0.9</v>
       </c>
       <c r="F8" t="n">
+        <v>0.5081300813008129</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
         <v>0.35714285714285715</v>
@@ -424,6 +460,9 @@
         <v>-0.5</v>
       </c>
       <c r="F9" t="n">
+        <v>0.4666244995430623</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -449,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -457,16 +496,19 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0.47619047619047616</v>
@@ -475,18 +517,21 @@
         <v>44.0</v>
       </c>
       <c r="F2" t="n">
+        <v>3.674234614174767</v>
+      </c>
+      <c r="G2" t="n">
         <v>8.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0.19047619047619047</v>
@@ -495,18 +540,21 @@
         <v>35.0</v>
       </c>
       <c r="F3" t="n">
+        <v>12.74754878398196</v>
+      </c>
+      <c r="G3" t="n">
         <v>28.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>0.09523809523809523</v>
@@ -515,18 +563,21 @@
         <v>55.5</v>
       </c>
       <c r="F4" t="n">
+        <v>9.334077351297235</v>
+      </c>
+      <c r="G4" t="n">
         <v>20.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>0.23809523809523808</v>
@@ -535,18 +586,21 @@
         <v>53.0</v>
       </c>
       <c r="F5" t="n">
+        <v>8.602325267042625</v>
+      </c>
+      <c r="G5" t="n">
         <v>19.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
         <v>0.2857142857142857</v>
@@ -555,18 +609,21 @@
         <v>51.0</v>
       </c>
       <c r="F6" t="n">
+        <v>9.669539802906858</v>
+      </c>
+      <c r="G6" t="n">
         <v>21.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
         <v>0.14285714285714285</v>
@@ -575,18 +632,21 @@
         <v>47.5</v>
       </c>
       <c r="F7" t="n">
+        <v>6.123724356957945</v>
+      </c>
+      <c r="G7" t="n">
         <v>13.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
         <v>0.21428571428571427</v>
@@ -595,18 +655,21 @@
         <v>40.0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G8" t="n">
         <v>14.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
         <v>0.35714285714285715</v>
@@ -615,6 +678,9 @@
         <v>48.0</v>
       </c>
       <c r="F9" t="n">
+        <v>6.196773353931866</v>
+      </c>
+      <c r="G9" t="n">
         <v>13.9</v>
       </c>
     </row>
